--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_21_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_21_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1928665.602459127</v>
+        <v>1924363.440562661</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.105228318</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>28.33592091243867</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>187.52558716632</v>
+        <v>182.5570120086798</v>
       </c>
       <c r="G2" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="H2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368128</v>
+        <v>11.36529914368134</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -737,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>24.3005583624597</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714234</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>119.3630063143644</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -816,31 +816,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>13.26693407041047</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>23.4337583055308</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,25 +861,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845758</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>92.69021559370937</v>
       </c>
       <c r="U4" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W4" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>288.1874442843764</v>
       </c>
       <c r="C5" t="n">
-        <v>349.2299344537569</v>
+        <v>349.2299344537568</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>349.2299344537568</v>
       </c>
       <c r="E5" t="n">
-        <v>57.68027527909553</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>349.2299344537569</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>349.2299344537569</v>
+        <v>12.538236240781</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>103.8974541908712</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>146.0239967969023</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.2299344537568</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>97.95007950277714</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>38.47015094419586</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>8.3214930216119</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.2027622142185</v>
+        <v>111.7771026772176</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>90.01360824317977</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1053,31 +1053,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>55.41194292538132</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.7509192581389</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>118.1584857285476</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>5.686931024057074</v>
+        <v>5.686931024057088</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1104,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>202.4057324704885</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>222.6471508178238</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>54.28972854478883</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>43.93598676617227</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>16.54389930660681</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247049</v>
@@ -1186,19 +1186,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1293,25 +1293,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>117.9169994871056</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,25 +1341,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>85.36610313819104</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1429,7 +1429,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="12">
@@ -1533,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>93.07916359105458</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>20.13408744447714</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1779,13 +1779,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>159.3471710336505</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>109.8058856274581</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2010,10 +2010,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2055,13 +2055,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>177.1006680594869</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>251.5502284016991</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>137.9792024346624</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2323,13 +2323,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2478,16 +2478,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>61.39258527121172</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2715,22 +2715,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>55.4097602225693</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2772,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>123.7971820797027</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>60.25690685266579</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3009,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634796</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3201,7 +3201,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>51.36569740310337</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3249,10 +3249,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>280.3460310779727</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3432,19 +3432,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465651</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>53.7694747549375</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>107.402108275628</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3556,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>27.02919805176115</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>91.89996056624796</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3909,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>165.8053198049109</v>
+        <v>105.6507867899569</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3994,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>83.06560892428168</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>64.91921363453586</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,10 +4188,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>710.0001061843509</v>
+        <v>388.8228542207801</v>
       </c>
       <c r="C2" t="n">
-        <v>710.0001061843509</v>
+        <v>388.8228542207801</v>
       </c>
       <c r="D2" t="n">
-        <v>710.0001061843509</v>
+        <v>388.8228542207801</v>
       </c>
       <c r="E2" t="n">
-        <v>710.0001061843509</v>
+        <v>388.8228542207801</v>
       </c>
       <c r="F2" t="n">
-        <v>520.580321167866</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="G2" t="n">
-        <v>331.1605361513811</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678489</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058956</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079187</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644757</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123832</v>
+        <v>509.4952041123826</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985589</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020269</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652801</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R2" t="n">
-        <v>738.6222485201475</v>
+        <v>738.6222485201467</v>
       </c>
       <c r="S2" t="n">
-        <v>738.6222485201475</v>
+        <v>578.2426392372648</v>
       </c>
       <c r="T2" t="n">
-        <v>738.6222485201475</v>
+        <v>578.2426392372648</v>
       </c>
       <c r="U2" t="n">
-        <v>738.6222485201475</v>
+        <v>578.2426392372648</v>
       </c>
       <c r="V2" t="n">
-        <v>738.6222485201475</v>
+        <v>578.2426392372648</v>
       </c>
       <c r="W2" t="n">
-        <v>738.6222485201475</v>
+        <v>578.2426392372648</v>
       </c>
       <c r="X2" t="n">
-        <v>738.6222485201475</v>
+        <v>578.2426392372648</v>
       </c>
       <c r="Y2" t="n">
-        <v>738.6222485201475</v>
+        <v>578.2426392372648</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>214.0010948023717</v>
+        <v>223.5110290045253</v>
       </c>
       <c r="C3" t="n">
-        <v>39.54806552124469</v>
+        <v>223.5110290045253</v>
       </c>
       <c r="D3" t="n">
-        <v>39.54806552124469</v>
+        <v>223.5110290045253</v>
       </c>
       <c r="E3" t="n">
-        <v>39.54806552124469</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="F3" t="n">
-        <v>39.54806552124469</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="G3" t="n">
-        <v>15.0020469733056</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="H3" t="n">
-        <v>15.0020469733056</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="I3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024222</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772651</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
         <v>338.7690911140244</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546605</v>
+        <v>512.5000587546598</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476352</v>
+        <v>649.2101578476347</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017066</v>
+        <v>739.598998701706</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652801</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R3" t="n">
-        <v>722.9192922843283</v>
+        <v>722.9192922843275</v>
       </c>
       <c r="S3" t="n">
-        <v>571.6362168389246</v>
+        <v>722.9192922843275</v>
       </c>
       <c r="T3" t="n">
-        <v>571.6362168389246</v>
+        <v>722.9192922843275</v>
       </c>
       <c r="U3" t="n">
-        <v>571.6362168389246</v>
+        <v>533.4995072678428</v>
       </c>
       <c r="V3" t="n">
-        <v>571.6362168389246</v>
+        <v>412.9308140210101</v>
       </c>
       <c r="W3" t="n">
-        <v>571.6362168389246</v>
+        <v>223.5110290045253</v>
       </c>
       <c r="X3" t="n">
-        <v>571.6362168389246</v>
+        <v>223.5110290045253</v>
       </c>
       <c r="Y3" t="n">
-        <v>382.2164318224397</v>
+        <v>223.5110290045253</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>52.07345341365033</v>
+        <v>463.6792325704562</v>
       </c>
       <c r="C4" t="n">
-        <v>52.07345341365033</v>
+        <v>463.6792325704562</v>
       </c>
       <c r="D4" t="n">
-        <v>52.07345341365033</v>
+        <v>313.5625931581204</v>
       </c>
       <c r="E4" t="n">
-        <v>52.07345341365033</v>
+        <v>165.6494995757273</v>
       </c>
       <c r="F4" t="n">
-        <v>52.07345341365033</v>
+        <v>165.6494995757273</v>
       </c>
       <c r="G4" t="n">
-        <v>38.67250990818521</v>
+        <v>165.6494995757273</v>
       </c>
       <c r="H4" t="n">
-        <v>38.67250990818521</v>
+        <v>165.6494995757273</v>
       </c>
       <c r="I4" t="n">
-        <v>38.67250990818521</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="J4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
-        <v>15.0020469733056</v>
+        <v>43.1759045242809</v>
       </c>
       <c r="L4" t="n">
-        <v>187.8896250884407</v>
+        <v>216.063482639416</v>
       </c>
       <c r="M4" t="n">
-        <v>373.5399563830975</v>
+        <v>401.7138139340726</v>
       </c>
       <c r="N4" t="n">
-        <v>471.6341805242522</v>
+        <v>587.3641452287293</v>
       </c>
       <c r="O4" t="n">
-        <v>634.3723839608024</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652801</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="Q4" t="n">
-        <v>746.7254979846279</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="R4" t="n">
-        <v>612.5614882768598</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="S4" t="n">
-        <v>612.5614882768598</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="T4" t="n">
-        <v>612.5614882768598</v>
+        <v>653.0990175869409</v>
       </c>
       <c r="U4" t="n">
-        <v>423.1417032603749</v>
+        <v>653.0990175869409</v>
       </c>
       <c r="V4" t="n">
-        <v>423.1417032603749</v>
+        <v>463.6792325704562</v>
       </c>
       <c r="W4" t="n">
-        <v>233.72191824389</v>
+        <v>463.6792325704562</v>
       </c>
       <c r="X4" t="n">
-        <v>233.72191824389</v>
+        <v>463.6792325704562</v>
       </c>
       <c r="Y4" t="n">
-        <v>233.72191824389</v>
+        <v>463.6792325704562</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1249.42075115149</v>
+        <v>753.0637996957007</v>
       </c>
       <c r="C5" t="n">
-        <v>896.6632416022405</v>
+        <v>400.3062901464513</v>
       </c>
       <c r="D5" t="n">
-        <v>896.6632416022405</v>
+        <v>47.548780597202</v>
       </c>
       <c r="E5" t="n">
-        <v>838.4003372799218</v>
+        <v>47.548780597202</v>
       </c>
       <c r="F5" t="n">
-        <v>485.6428277306724</v>
+        <v>40.60327984799852</v>
       </c>
       <c r="G5" t="n">
-        <v>132.8853181814229</v>
+        <v>27.93839475630055</v>
       </c>
       <c r="H5" t="n">
-        <v>132.8853181814229</v>
+        <v>27.93839475630055</v>
       </c>
       <c r="I5" t="n">
         <v>27.93839475630055</v>
@@ -4573,16 +4573,16 @@
         <v>211.2396305620541</v>
       </c>
       <c r="L5" t="n">
-        <v>409.7273242458682</v>
+        <v>409.7273242458681</v>
       </c>
       <c r="M5" t="n">
-        <v>662.2525653973855</v>
+        <v>662.2525653973853</v>
       </c>
       <c r="N5" t="n">
-        <v>923.4777373365788</v>
+        <v>923.4777373365786</v>
       </c>
       <c r="O5" t="n">
-        <v>1156.809998477538</v>
+        <v>1156.809998477537</v>
       </c>
       <c r="P5" t="n">
         <v>1321.45268416974</v>
@@ -4594,25 +4594,25 @@
         <v>1396.919737815027</v>
       </c>
       <c r="S5" t="n">
-        <v>1249.42075115149</v>
+        <v>1396.919737815027</v>
       </c>
       <c r="T5" t="n">
-        <v>1249.42075115149</v>
+        <v>1396.919737815027</v>
       </c>
       <c r="U5" t="n">
-        <v>1249.42075115149</v>
+        <v>1396.919737815027</v>
       </c>
       <c r="V5" t="n">
-        <v>1249.42075115149</v>
+        <v>1396.919737815027</v>
       </c>
       <c r="W5" t="n">
-        <v>1249.42075115149</v>
+        <v>1044.162228265778</v>
       </c>
       <c r="X5" t="n">
-        <v>1249.42075115149</v>
+        <v>1044.162228265778</v>
       </c>
       <c r="Y5" t="n">
-        <v>1249.42075115149</v>
+        <v>1044.162228265778</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>620.4430299688224</v>
+        <v>202.3914240374276</v>
       </c>
       <c r="C6" t="n">
-        <v>620.4430299688224</v>
+        <v>27.93839475630055</v>
       </c>
       <c r="D6" t="n">
-        <v>471.5086203075711</v>
+        <v>27.93839475630055</v>
       </c>
       <c r="E6" t="n">
-        <v>312.2711653021156</v>
+        <v>27.93839475630055</v>
       </c>
       <c r="F6" t="n">
-        <v>165.7366073290006</v>
+        <v>27.93839475630055</v>
       </c>
       <c r="G6" t="n">
-        <v>165.7366073290006</v>
+        <v>27.93839475630055</v>
       </c>
       <c r="H6" t="n">
-        <v>66.79713308377113</v>
+        <v>27.93839475630055</v>
       </c>
       <c r="I6" t="n">
         <v>27.93839475630055</v>
       </c>
       <c r="J6" t="n">
-        <v>40.71784159143108</v>
+        <v>40.71784159143105</v>
       </c>
       <c r="K6" t="n">
-        <v>140.7147764379378</v>
+        <v>140.7147764379377</v>
       </c>
       <c r="L6" t="n">
-        <v>321.4955368824507</v>
+        <v>321.4955368824505</v>
       </c>
       <c r="M6" t="n">
-        <v>551.815025615863</v>
+        <v>551.8150256158627</v>
       </c>
       <c r="N6" t="n">
-        <v>802.639030794768</v>
+        <v>802.6390307947677</v>
       </c>
       <c r="O6" t="n">
         <v>1009.874197887852</v>
       </c>
       <c r="P6" t="n">
-        <v>1348.579058983956</v>
+        <v>1156.865623411836</v>
       </c>
       <c r="Q6" t="n">
         <v>1396.919737815027</v>
       </c>
       <c r="R6" t="n">
-        <v>1396.919737815027</v>
+        <v>1388.514189308348</v>
       </c>
       <c r="S6" t="n">
-        <v>1396.919737815027</v>
+        <v>1388.514189308348</v>
       </c>
       <c r="T6" t="n">
-        <v>1200.755331538039</v>
+        <v>1275.608024987927</v>
       </c>
       <c r="U6" t="n">
-        <v>1200.755331538039</v>
+        <v>1275.608024987927</v>
       </c>
       <c r="V6" t="n">
-        <v>965.6032233062965</v>
+        <v>1040.455916756184</v>
       </c>
       <c r="W6" t="n">
-        <v>711.3658665780949</v>
+        <v>786.2185600279823</v>
       </c>
       <c r="X6" t="n">
-        <v>620.4430299688224</v>
+        <v>578.3670598224495</v>
       </c>
       <c r="Y6" t="n">
-        <v>620.4430299688224</v>
+        <v>370.6067610574956</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>525.3548003953855</v>
+        <v>497.4219935362858</v>
       </c>
       <c r="C7" t="n">
-        <v>525.3548003953855</v>
+        <v>328.4858106083789</v>
       </c>
       <c r="D7" t="n">
-        <v>469.3831408747983</v>
+        <v>328.4858106083789</v>
       </c>
       <c r="E7" t="n">
-        <v>321.4700472924052</v>
+        <v>180.5727170259858</v>
       </c>
       <c r="F7" t="n">
-        <v>321.4700472924052</v>
+        <v>33.68276952807538</v>
       </c>
       <c r="G7" t="n">
-        <v>153.0347753144871</v>
+        <v>33.68276952807538</v>
       </c>
       <c r="H7" t="n">
-        <v>153.0347753144871</v>
+        <v>33.68276952807538</v>
       </c>
       <c r="I7" t="n">
-        <v>33.68276952807537</v>
+        <v>33.68276952807538</v>
       </c>
       <c r="J7" t="n">
         <v>27.93839475630055</v>
@@ -4731,7 +4731,7 @@
         <v>148.5233105874694</v>
       </c>
       <c r="L7" t="n">
-        <v>358.3569215208647</v>
+        <v>358.3569215208646</v>
       </c>
       <c r="M7" t="n">
         <v>589.9861665014284</v>
@@ -4752,25 +4752,25 @@
         <v>1182.690698049274</v>
       </c>
       <c r="S7" t="n">
-        <v>978.2404632305986</v>
+        <v>1182.690698049274</v>
       </c>
       <c r="T7" t="n">
-        <v>753.3443512934028</v>
+        <v>1182.690698049274</v>
       </c>
       <c r="U7" t="n">
-        <v>753.3443512934028</v>
+        <v>1182.690698049274</v>
       </c>
       <c r="V7" t="n">
-        <v>753.3443512934028</v>
+        <v>1182.690698049274</v>
       </c>
       <c r="W7" t="n">
-        <v>753.3443512934028</v>
+        <v>1127.852588408073</v>
       </c>
       <c r="X7" t="n">
-        <v>525.3548003953855</v>
+        <v>899.8630375100556</v>
       </c>
       <c r="Y7" t="n">
-        <v>525.3548003953855</v>
+        <v>679.0704583665255</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2003.121004338519</v>
+        <v>141.2769458819311</v>
       </c>
       <c r="C8" t="n">
-        <v>1634.158487398107</v>
+        <v>141.2769458819311</v>
       </c>
       <c r="D8" t="n">
-        <v>1634.158487398107</v>
+        <v>141.2769458819311</v>
       </c>
       <c r="E8" t="n">
-        <v>1248.370234799863</v>
+        <v>141.2769458819311</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102556</v>
+        <v>134.3314451327277</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.640120926626</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V8" t="n">
-        <v>2437.640120926626</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W8" t="n">
-        <v>2437.640120926626</v>
+        <v>1291.481876182944</v>
       </c>
       <c r="X8" t="n">
-        <v>2437.640120926626</v>
+        <v>918.0161179218646</v>
       </c>
       <c r="Y8" t="n">
-        <v>2047.500788950814</v>
+        <v>527.8767859460529</v>
       </c>
     </row>
     <row r="9">
@@ -4859,31 +4859,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182524</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H9" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
         <v>560.1394111735141</v>
@@ -4895,16 +4895,16 @@
         <v>1218.104987164206</v>
       </c>
       <c r="N9" t="n">
-        <v>1843.432194560478</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O9" t="n">
-        <v>2175.502629736639</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P9" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4916,16 +4916,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,49 +4938,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>424.9489116651092</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C10" t="n">
-        <v>424.9489116651092</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D10" t="n">
-        <v>424.9489116651092</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E10" t="n">
-        <v>424.9489116651092</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>424.9489116651092</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4989,25 +4989,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1150.699034738196</v>
+        <v>1550.217733066223</v>
       </c>
       <c r="V10" t="n">
-        <v>896.0145465323095</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="W10" t="n">
-        <v>606.597376495349</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="X10" t="n">
-        <v>606.597376495349</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y10" t="n">
-        <v>606.597376495349</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="11">
@@ -5035,16 +5035,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,28 +5053,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>781.3544215660705</v>
+        <v>801.6918836311994</v>
       </c>
       <c r="C13" t="n">
-        <v>612.4182386381636</v>
+        <v>632.7557007032925</v>
       </c>
       <c r="D13" t="n">
-        <v>612.4182386381636</v>
+        <v>482.6390612909568</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>334.7259677085636</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>187.8360202106533</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2426.625621515132</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2243.770787170036</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2024.169322192977</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1735.094095537175</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1480.409607331288</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1190.992437294328</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>963.0028863963103</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y13" t="n">
-        <v>963.0028863963103</v>
+        <v>983.3403484614391</v>
       </c>
     </row>
     <row r="14">
@@ -5275,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5296,7 +5296,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5314,10 +5314,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591809</v>
@@ -5354,28 +5354,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>923.4916164683283</v>
+        <v>985.7836617409695</v>
       </c>
       <c r="C16" t="n">
-        <v>923.4916164683283</v>
+        <v>816.8474788130626</v>
       </c>
       <c r="D16" t="n">
-        <v>773.3749770559925</v>
+        <v>666.7308394007268</v>
       </c>
       <c r="E16" t="n">
-        <v>625.4618834735994</v>
+        <v>518.8177458183337</v>
       </c>
       <c r="F16" t="n">
-        <v>478.571935975689</v>
+        <v>371.9277983204233</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>204.7316990353033</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1905.631426649717</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1616.214256612757</v>
       </c>
       <c r="X16" t="n">
-        <v>1144.284195611858</v>
+        <v>1388.224705714739</v>
       </c>
       <c r="Y16" t="n">
-        <v>923.4916164683283</v>
+        <v>1167.432126571209</v>
       </c>
     </row>
     <row r="17">
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
         <v>484.8112968429803</v>
@@ -5703,22 +5703,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2018.172981791116</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1729.097755135313</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1729.097755135313</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="W19" t="n">
-        <v>1729.097755135313</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="20">
@@ -5734,31 +5734,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014779</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1336.167399417937</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1888.077129657224</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2307.590151828076</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2307.590151828076</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2018.514925172274</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5971,10 +5971,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
@@ -5986,22 +5986,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>448.1846595309963</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>943.510265746755</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1540.888753373307</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3173.601046153952</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>3173.601046153952</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>3023.484406741616</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>2875.571313159223</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4628.82044000343</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4628.82044000343</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4409.218975026371</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>4120.143748370569</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>3865.459260164682</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>3576.042090127722</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>3576.042090127722</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>3355.249510984192</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6208,37 +6208,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6247,28 +6247,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6299,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>835.5837926935558</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>835.5837926935558</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1466.014387565343</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1238.024836667326</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1017.232257523796</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1652.717886400351</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>768.5380889459582</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C31" t="n">
-        <v>599.6019060180513</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D31" t="n">
-        <v>449.4852666057155</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="E31" t="n">
-        <v>301.5721730233224</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="F31" t="n">
-        <v>154.6822255254121</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>154.6822255254121</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>154.6822255254121</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6648,25 +6648,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V31" t="n">
-        <v>1688.385853854706</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W31" t="n">
-        <v>1398.968683817745</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X31" t="n">
-        <v>1170.979132919728</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y31" t="n">
-        <v>950.1865537761979</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="32">
@@ -6694,58 +6694,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6773,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1965.532750177311</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2389.155899672379</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>929.7309773356195</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2395.078540748843</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W34" t="n">
-        <v>1150.52355647915</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X34" t="n">
-        <v>1150.52355647915</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y34" t="n">
-        <v>929.7309773356195</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="35">
@@ -6934,22 +6934,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6958,7 +6958,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>923.0670414349511</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1550.665004989558</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>985.7836617409695</v>
+        <v>874.868625753634</v>
       </c>
       <c r="C37" t="n">
-        <v>816.8474788130626</v>
+        <v>705.9324428257271</v>
       </c>
       <c r="D37" t="n">
-        <v>666.7308394007268</v>
+        <v>555.8158034133913</v>
       </c>
       <c r="E37" t="n">
-        <v>518.8177458183337</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F37" t="n">
-        <v>371.9277983204233</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855604</v>
+        <v>2338.476105524071</v>
       </c>
       <c r="U37" t="n">
-        <v>2160.315914855604</v>
+        <v>2049.400878868269</v>
       </c>
       <c r="V37" t="n">
-        <v>1905.631426649717</v>
+        <v>1794.716390662382</v>
       </c>
       <c r="W37" t="n">
-        <v>1616.214256612757</v>
+        <v>1505.299220625421</v>
       </c>
       <c r="X37" t="n">
-        <v>1388.224705714739</v>
+        <v>1277.309669727404</v>
       </c>
       <c r="Y37" t="n">
-        <v>1167.432126571209</v>
+        <v>1056.517090583874</v>
       </c>
     </row>
     <row r="38">
@@ -7168,19 +7168,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
@@ -7195,13 +7195,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7247,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282753</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7414,19 +7414,19 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>702.4944101284095</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>533.5582272005026</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>383.4415877881669</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>235.5284942057738</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U43" t="n">
-        <v>1877.026663243044</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V43" t="n">
-        <v>1622.342175037157</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W43" t="n">
-        <v>1332.925005000197</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>1104.935454102179</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>884.1428749586493</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004712</v>
@@ -7636,22 +7636,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>1022.530292372932</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>853.5941094450255</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>703.4774700326898</v>
       </c>
       <c r="E46" t="n">
-        <v>261.0127623330919</v>
+        <v>555.5643764502967</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>408.6744289523863</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>241.4783296672662</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7836,22 +7836,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1942.37805728168</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1652.96088724472</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1424.971336346702</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>1204.178757203172</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265835</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8139,22 +8139,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402848</v>
+        <v>42.56275186471065</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>171.4142040457085</v>
+        <v>171.4142040457083</v>
       </c>
       <c r="N4" t="n">
-        <v>75.41988959484689</v>
+        <v>163.8604018711116</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>135.0065633140411</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>41.92993463898915</v>
+        <v>41.92993463898918</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8312,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>193.6499349213323</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>193.6499349213325</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8543,19 +8543,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>240.4465442417442</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>265.0304328515147</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>72.44497470121426</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.24115926564455</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>6.176967258618305</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>30.48882721876578</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,13 +23703,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23898,10 +23898,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23943,13 +23943,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>40.30478226780136</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0.5874149221289144</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>43.04708356698217</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24366,16 +24366,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>4.982661438909965</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24603,22 +24603,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>93.20571279564305</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465651</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>21.62386594322854</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>21.00892946589975</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25089,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>166.0397529241849</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,10 +25137,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>6.176967258618276</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>111.7546635373313</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>110.0033420516603</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>121.5862749664512</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>125.5054897610403</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>120.3791545843333</v>
+        <v>180.5336875992872</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>63.36835372228749</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>75.37549921168802</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,10 +26076,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>860312.7529397652</v>
+        <v>860312.7529397651</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>860312.7529397652</v>
+        <v>860312.752939765</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>860312.7529397652</v>
+        <v>860312.7529397651</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>860312.752939765</v>
+        <v>860312.7529397652</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>860312.752939765</v>
+        <v>860312.7529397651</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>860312.7529397651</v>
+        <v>860312.7529397652</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>860312.752939765</v>
+        <v>860312.7529397652</v>
       </c>
     </row>
   </sheetData>
@@ -26316,28 +26316,28 @@
         <v>574729.2389049982</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049984</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049988</v>
       </c>
       <c r="E2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="F2" t="n">
         <v>565002.6197830044</v>
       </c>
       <c r="G2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="H2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="I2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="J2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830043</v>
       </c>
       <c r="K2" t="n">
         <v>565002.6197830045</v>
@@ -26346,16 +26346,16 @@
         <v>565002.6197830045</v>
       </c>
       <c r="M2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="N2" t="n">
         <v>565002.6197830045</v>
       </c>
       <c r="O2" t="n">
-        <v>565002.6197830046</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="P2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830044</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208456</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>178997.5061427128</v>
+        <v>178997.506142713</v>
       </c>
       <c r="D3" t="n">
-        <v>301519.8707731195</v>
+        <v>301519.8707731196</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245458</v>
+        <v>507485.4416245462</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854465</v>
+        <v>49064.9447285445</v>
       </c>
       <c r="K3" t="n">
-        <v>41617.52445267303</v>
+        <v>41617.52445267315</v>
       </c>
       <c r="L3" t="n">
-        <v>73739.30240019514</v>
+        <v>73739.30240019511</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289268</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>277470.8484307131</v>
+        <v>277470.8484307132</v>
       </c>
       <c r="C4" t="n">
-        <v>229588.1389806964</v>
+        <v>229588.1389806965</v>
       </c>
       <c r="D4" t="n">
-        <v>145155.2306979382</v>
+        <v>145155.2306979383</v>
       </c>
       <c r="E4" t="n">
         <v>13606.80811184275</v>
@@ -26432,7 +26432,7 @@
         <v>13606.80811184275</v>
       </c>
       <c r="G4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="H4" t="n">
         <v>13606.80811184274</v>
@@ -26441,16 +26441,16 @@
         <v>13606.80811184274</v>
       </c>
       <c r="J4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.8081118428</v>
       </c>
       <c r="K4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.8081118428</v>
       </c>
       <c r="L4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184279</v>
       </c>
       <c r="M4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.8081118428</v>
       </c>
       <c r="N4" t="n">
         <v>13606.80811184274</v>
@@ -26459,7 +26459,7 @@
         <v>13606.80811184274</v>
       </c>
       <c r="P4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
     </row>
     <row r="5">
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161359</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="C5" t="n">
-        <v>69851.97930029187</v>
+        <v>69851.97930029186</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-351084.3124581742</v>
+        <v>-351084.312458174</v>
       </c>
       <c r="C6" t="n">
-        <v>96291.61448129754</v>
+        <v>96291.61448129709</v>
       </c>
       <c r="D6" t="n">
-        <v>35116.36499409619</v>
+        <v>35116.36499409622</v>
       </c>
       <c r="E6" t="n">
-        <v>-57212.15977729124</v>
+        <v>-57559.53903164848</v>
       </c>
       <c r="F6" t="n">
-        <v>450273.2818472545</v>
+        <v>449925.9025928976</v>
       </c>
       <c r="G6" t="n">
-        <v>450273.2818472545</v>
+        <v>449925.9025928979</v>
       </c>
       <c r="H6" t="n">
-        <v>450273.2818472545</v>
+        <v>449925.9025928977</v>
       </c>
       <c r="I6" t="n">
-        <v>450273.2818472545</v>
+        <v>449925.9025928977</v>
       </c>
       <c r="J6" t="n">
-        <v>401208.33711871</v>
+        <v>400860.957864353</v>
       </c>
       <c r="K6" t="n">
-        <v>408655.7573945816</v>
+        <v>408308.3781402245</v>
       </c>
       <c r="L6" t="n">
-        <v>376533.9794470595</v>
+        <v>376186.6001927026</v>
       </c>
       <c r="M6" t="n">
-        <v>317665.988118328</v>
+        <v>317318.608863971</v>
       </c>
       <c r="N6" t="n">
-        <v>450273.2818472547</v>
+        <v>449925.9025928978</v>
       </c>
       <c r="O6" t="n">
-        <v>450273.2818472548</v>
+        <v>449925.9025928977</v>
       </c>
       <c r="P6" t="n">
-        <v>450273.2818472544</v>
+        <v>449925.9025928976</v>
       </c>
     </row>
   </sheetData>
@@ -26709,16 +26709,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.469431638532585e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.469431638532585e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.469431638532585e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.469431638532585e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>687.6696919955714</v>
+        <v>687.6696919955713</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>349.2299344537569</v>
+        <v>349.2299344537568</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.469431638532585e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>139.1997510826666</v>
+        <v>139.1997510826667</v>
       </c>
       <c r="D3" t="n">
         <v>246.3952001219678</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241345</v>
+        <v>433.9106082241349</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>161.7043472874368</v>
+        <v>161.7043472874369</v>
       </c>
       <c r="D4" t="n">
         <v>291.354897646282</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663194</v>
       </c>
       <c r="K4" t="n">
-        <v>161.7043472874368</v>
+        <v>161.7043472874373</v>
       </c>
       <c r="L4" t="n">
-        <v>291.3548976462819</v>
+        <v>291.3548976462818</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996101</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.469431638532585e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>161.7043472874368</v>
+        <v>161.7043472874369</v>
       </c>
       <c r="L4" t="n">
         <v>291.354897646282</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>354.3979207510419</v>
+        <v>195.2082544971607</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27390,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753914</v>
+        <v>224.3190337330316</v>
       </c>
       <c r="G2" t="n">
-        <v>225.572246063738</v>
+        <v>225.5722460637382</v>
       </c>
       <c r="H2" t="n">
-        <v>129.3682389399023</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>213.4438810562068</v>
@@ -27457,28 +27457,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>111.8632310033156</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550655</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27508,25 +27508,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920012</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>38.33818124377106</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>113.4375808350609</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>64.16939599459974</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.15710861098432</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>153.7350011323037</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
         <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
         <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>223.7196734901001</v>
+        <v>131.0294578963907</v>
       </c>
       <c r="U4" t="n">
-        <v>98.73949432713023</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>64.61205615750814</v>
       </c>
       <c r="W4" t="n">
-        <v>98.99741117027096</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>94.54639737910418</v>
       </c>
       <c r="C5" t="n">
-        <v>16.04295731725068</v>
+        <v>16.04295731725074</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>5.453107166926145</v>
       </c>
       <c r="E5" t="n">
-        <v>324.2500947931662</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>57.64611128795457</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>63.30830178702413</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>311.1628534397887</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>103.8974541908712</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>146.0239967969023</v>
       </c>
       <c r="T5" t="n">
         <v>210.9942452356465</v>
@@ -27678,7 +27678,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0.01103426365619953</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27694,28 +27694,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>135.8643785804277</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>97.95007950277714</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>38.47015094419588</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,13 +27742,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>8.321493021611886</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>144.2088206736374</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>82.42565953700093</v>
       </c>
       <c r="U6" t="n">
         <v>225.8440703321075</v>
@@ -27760,10 +27760,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>115.7593769602977</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>93.20353009283104</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.7509192581389</v>
       </c>
       <c r="H7" t="n">
         <v>151.2019108882319</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>118.1584857285476</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,10 +27824,10 @@
         <v>121.5357799573319</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>202.4057324704885</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.6471508178238</v>
       </c>
       <c r="U7" t="n">
         <v>286.2513897146553</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>232.2332697918022</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>338.7978548973083</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>395.0038034663472</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,19 +27906,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>48.38960055769859</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,25 +28061,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>200.8610509830096</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29337,7 +29337,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>1.22179783531841e-12</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -29678,7 +29678,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>4.05229615380606e-12</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -29748,7 +29748,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>9.707434855954489e-13</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -30152,7 +30152,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>4.05229615380606e-12</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -31044,46 +31044,46 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043123</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655544</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>280.472093452864</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672894</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470275</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470026</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622681</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244296</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151093</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619225</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924584</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,13 +31120,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435305</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590852</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31135,34 +31135,34 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405033</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975331</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829655</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292674</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628873</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.2466083355008</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288821</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820371</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390166</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445823</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620019</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639163</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114197</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31223,25 +31223,25 @@
         <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592434</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784863</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647912</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181396</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061364</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.764501274354054</v>
+        <v>2.764501274354053</v>
       </c>
       <c r="H5" t="n">
         <v>28.31194867597846</v>
       </c>
       <c r="I5" t="n">
-        <v>106.5784353795348</v>
+        <v>106.5784353795347</v>
       </c>
       <c r="J5" t="n">
-        <v>234.6335900342076</v>
+        <v>234.6335900342075</v>
       </c>
       <c r="K5" t="n">
-        <v>351.6549289776148</v>
+        <v>351.6549289776147</v>
       </c>
       <c r="L5" t="n">
-        <v>436.2590348526277</v>
+        <v>436.2590348526276</v>
       </c>
       <c r="M5" t="n">
-        <v>485.4222343904216</v>
+        <v>485.4222343904215</v>
       </c>
       <c r="N5" t="n">
-        <v>493.2768736361801</v>
+        <v>493.27687363618</v>
       </c>
       <c r="O5" t="n">
-        <v>465.787364089322</v>
+        <v>465.7873640893218</v>
       </c>
       <c r="P5" t="n">
-        <v>397.5387388787062</v>
+        <v>397.5387388787061</v>
       </c>
       <c r="Q5" t="n">
         <v>298.5350369909015</v>
       </c>
       <c r="R5" t="n">
-        <v>173.655603175143</v>
+        <v>173.6556031751429</v>
       </c>
       <c r="S5" t="n">
-        <v>62.99607278934306</v>
+        <v>62.99607278934305</v>
       </c>
       <c r="T5" t="n">
-        <v>12.10160432848488</v>
+        <v>12.10160432848487</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2211601019483243</v>
+        <v>0.2211601019483242</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31363,7 +31363,7 @@
         <v>14.28536473371932</v>
       </c>
       <c r="I6" t="n">
-        <v>50.92648190721921</v>
+        <v>50.9264819072192</v>
       </c>
       <c r="J6" t="n">
         <v>139.7461588233642</v>
@@ -31372,34 +31372,34 @@
         <v>238.8484438698203</v>
       </c>
       <c r="L6" t="n">
-        <v>321.1612085117054</v>
+        <v>321.1612085117053</v>
       </c>
       <c r="M6" t="n">
         <v>374.7799821375863</v>
       </c>
       <c r="N6" t="n">
-        <v>384.6992930721263</v>
+        <v>384.6992930721262</v>
       </c>
       <c r="O6" t="n">
-        <v>351.9246960536204</v>
+        <v>351.9246960536203</v>
       </c>
       <c r="P6" t="n">
         <v>282.4505948122942</v>
       </c>
       <c r="Q6" t="n">
-        <v>188.8107426022558</v>
+        <v>188.8107426022557</v>
       </c>
       <c r="R6" t="n">
-        <v>91.83634113103125</v>
+        <v>91.83634113103123</v>
       </c>
       <c r="S6" t="n">
-        <v>27.47435043020041</v>
+        <v>27.4743504302004</v>
       </c>
       <c r="T6" t="n">
-        <v>5.961966480603112</v>
+        <v>5.961966480603111</v>
       </c>
       <c r="U6" t="n">
-        <v>0.09731174886729788</v>
+        <v>0.09731174886729786</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,10 +31442,10 @@
         <v>11.02526161920769</v>
       </c>
       <c r="I7" t="n">
-        <v>37.29198919871067</v>
+        <v>37.29198919871066</v>
       </c>
       <c r="J7" t="n">
-        <v>87.6722490926157</v>
+        <v>87.67224909261569</v>
       </c>
       <c r="K7" t="n">
         <v>144.0724371098918</v>
@@ -31460,7 +31460,7 @@
         <v>189.76301516986</v>
       </c>
       <c r="O7" t="n">
-        <v>175.2768585433959</v>
+        <v>175.2768585433958</v>
       </c>
       <c r="P7" t="n">
         <v>149.9796324968701</v>
@@ -31469,13 +31469,13 @@
         <v>103.8381234913313</v>
       </c>
       <c r="R7" t="n">
-        <v>55.75761141983762</v>
+        <v>55.75761141983761</v>
       </c>
       <c r="S7" t="n">
-        <v>21.61086556648377</v>
+        <v>21.61086556648376</v>
       </c>
       <c r="T7" t="n">
-        <v>5.298438610457679</v>
+        <v>5.298438610457678</v>
       </c>
       <c r="U7" t="n">
         <v>0.06763964183563004</v>
@@ -31518,43 +31518,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,7 +31609,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31618,25 +31618,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31709,13 +31709,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>479.6444630806909</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32320,25 +32320,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>245.8118639189582</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32548,13 +32548,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32563,19 +32563,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>533.0479862785273</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32785,13 +32785,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>344.6306853939244</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32800,19 +32800,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33028,25 +33028,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>675.4898072958217</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33198,7 +33198,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
         <v>790.8204499236507</v>
@@ -33259,16 +33259,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33277,16 +33277,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>351.5042614518788</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33502,7 +33502,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33514,16 +33514,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>268.5330199802463</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33733,10 +33733,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33745,19 +33745,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>491.597732526532</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33976,25 +33976,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>618.3341264639751</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34207,16 +34207,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34225,13 +34225,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34456,22 +34456,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>379.4203056753705</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868137</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788344</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973021</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197548</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504117</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405814</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656916001</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065984</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781475</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606292</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755148</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996322</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.091009184823</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855702</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440765002</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>28.45844197068213</v>
       </c>
       <c r="L4" t="n">
-        <v>174.6339172880153</v>
+        <v>174.6339172880152</v>
       </c>
       <c r="M4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="N4" t="n">
-        <v>99.08507489005521</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="O4" t="n">
         <v>164.382023673283</v>
       </c>
       <c r="P4" t="n">
-        <v>116.8989542469473</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>53.58768550752129</v>
+        <v>53.58768550752126</v>
       </c>
       <c r="K5" t="n">
         <v>131.5650779326342</v>
@@ -34947,16 +34947,16 @@
         <v>255.0760011631488</v>
       </c>
       <c r="N5" t="n">
-        <v>263.8638100395892</v>
+        <v>263.8638100395891</v>
       </c>
       <c r="O5" t="n">
-        <v>235.6891526676352</v>
+        <v>235.6891526676351</v>
       </c>
       <c r="P5" t="n">
         <v>166.3057431234366</v>
       </c>
       <c r="Q5" t="n">
-        <v>76.22934711645203</v>
+        <v>76.22934711645198</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>12.9085321566975</v>
+        <v>12.90853215669748</v>
       </c>
       <c r="K6" t="n">
         <v>101.0070048954613</v>
       </c>
       <c r="L6" t="n">
-        <v>182.6068287318312</v>
+        <v>182.6068287318311</v>
       </c>
       <c r="M6" t="n">
         <v>232.645948215568</v>
       </c>
       <c r="N6" t="n">
-        <v>253.357580988793</v>
+        <v>253.3575809887929</v>
       </c>
       <c r="O6" t="n">
         <v>209.3284516091759</v>
       </c>
       <c r="P6" t="n">
-        <v>342.1261223192963</v>
+        <v>148.4761873979639</v>
       </c>
       <c r="Q6" t="n">
-        <v>48.82896851623426</v>
+        <v>242.4789034375667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35105,7 +35105,7 @@
         <v>233.9689343238018</v>
       </c>
       <c r="N7" t="n">
-        <v>233.8951875490886</v>
+        <v>233.8951875490885</v>
       </c>
       <c r="O7" t="n">
         <v>199.8619864574355</v>
@@ -35114,7 +35114,7 @@
         <v>147.2581917617636</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.67608023963689</v>
+        <v>17.67608023963687</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
         <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>631.643643834618</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>514.7099619750469</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35342,7 +35342,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35351,7 +35351,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,25 +35494,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>337.5104291586726</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,22 +35731,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,25 +35968,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>103.6778299969399</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36211,19 +36211,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>399.073578864197</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>206.7892464195654</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36448,19 +36448,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36676,25 +36676,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>533.3557733738033</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36846,7 +36846,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36925,16 +36925,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>208.9080170074344</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37162,16 +37162,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>128.5512458942248</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37393,19 +37393,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>349.0014880820875</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,25 +37624,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>476.2000925419567</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37855,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37873,13 +37873,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38037,7 +38037,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38104,22 +38104,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>237.2862717533522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_21_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_21_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1924363.440562661</v>
+        <v>1926123.970865446</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.105228318</v>
+        <v>416855.1052283195</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>187.5255871663199</v>
+        <v>146.931192290702</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -670,10 +670,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>182.5570120086798</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368134</v>
+        <v>11.36529914368128</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
     </row>
     <row r="3">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550657</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714238</v>
+        <v>26.91122581714234</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>119.3630063143644</v>
+        <v>187.52558716632</v>
       </c>
       <c r="W3" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>174.0708030534093</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553084</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845801</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>92.69021559370937</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>77.92745474532538</v>
       </c>
     </row>
     <row r="5">
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>288.1874442843764</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>349.2299344537568</v>
+        <v>349.2299344537569</v>
       </c>
       <c r="D5" t="n">
-        <v>349.2299344537568</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>96.60748103122258</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>349.2299344537569</v>
       </c>
       <c r="G5" t="n">
-        <v>12.538236240781</v>
+        <v>349.2299344537569</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>210.9942452356465</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.2299344537568</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -974,19 +974,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1022,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>8.3214930216119</v>
+        <v>8.321493021611886</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>111.7771026772176</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>33.92391311713916</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1040,7 +1040,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1059,7 +1059,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>5.686931024057088</v>
+        <v>5.686931024057074</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>54.28972854478883</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>131.3839109156137</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1144,13 +1144,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>16.54389930660681</v>
+        <v>282.9189359077459</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247049</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>50.9807481254279</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>85.36610313819104</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187844</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819448</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>93.07916359105458</v>
+        <v>21.6971857188442</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1590,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1779,10 +1779,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>132.6315337216688</v>
       </c>
       <c r="H16" t="n">
-        <v>109.8058856274581</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1846,13 +1846,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -2010,7 +2010,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2061,16 +2061,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>251.5502284016991</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>6.600826611594925</v>
       </c>
     </row>
     <row r="20">
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2323,7 +2323,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2721,19 +2721,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H28" t="n">
-        <v>1.799772605716168</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2952,22 +2952,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>123.7971820797027</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634796</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>51.36569740310337</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710066</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3432,13 +3432,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465651</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>107.402108275628</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>240.06330988836</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>27.02919805176115</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3903,13 +3903,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3948,13 +3948,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>105.6507867899569</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3994,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>64.91921363453586</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>176.1811323375794</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>388.8228542207801</v>
+        <v>211.367332738994</v>
       </c>
       <c r="C2" t="n">
-        <v>388.8228542207801</v>
+        <v>211.367332738994</v>
       </c>
       <c r="D2" t="n">
-        <v>388.8228542207801</v>
+        <v>211.367332738994</v>
       </c>
       <c r="E2" t="n">
-        <v>388.8228542207801</v>
+        <v>211.367332738994</v>
       </c>
       <c r="F2" t="n">
-        <v>204.4218319897903</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678478</v>
+        <v>21.03371160678506</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159058967</v>
       </c>
       <c r="L2" t="n">
         <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644753</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123826</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985582</v>
+        <v>649.4845259985584</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020263</v>
+        <v>734.4611726020269</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652801</v>
       </c>
       <c r="R2" t="n">
-        <v>738.6222485201467</v>
+        <v>738.6222485201475</v>
       </c>
       <c r="S2" t="n">
-        <v>578.2426392372648</v>
+        <v>738.6222485201475</v>
       </c>
       <c r="T2" t="n">
-        <v>578.2426392372648</v>
+        <v>738.6222485201475</v>
       </c>
       <c r="U2" t="n">
-        <v>578.2426392372648</v>
+        <v>738.6222485201475</v>
       </c>
       <c r="V2" t="n">
-        <v>578.2426392372648</v>
+        <v>738.6222485201475</v>
       </c>
       <c r="W2" t="n">
-        <v>578.2426392372648</v>
+        <v>738.6222485201475</v>
       </c>
       <c r="X2" t="n">
-        <v>578.2426392372648</v>
+        <v>549.2024635036627</v>
       </c>
       <c r="Y2" t="n">
-        <v>578.2426392372648</v>
+        <v>359.7826784871778</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223.5110290045253</v>
+        <v>189.4550762544326</v>
       </c>
       <c r="C3" t="n">
-        <v>223.5110290045253</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D3" t="n">
-        <v>223.5110290045253</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E3" t="n">
-        <v>64.27357399906981</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F3" t="n">
-        <v>64.27357399906981</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G3" t="n">
-        <v>64.27357399906981</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H3" t="n">
-        <v>64.27357399906981</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024219</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772649</v>
+        <v>183.5548280772651</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140244</v>
+        <v>338.7690911140248</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546598</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476347</v>
+        <v>649.2101578476352</v>
       </c>
       <c r="P3" t="n">
-        <v>739.598998701706</v>
+        <v>739.5989987017066</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652801</v>
       </c>
       <c r="R3" t="n">
-        <v>722.9192922843275</v>
+        <v>722.9192922843283</v>
       </c>
       <c r="S3" t="n">
-        <v>722.9192922843275</v>
+        <v>722.9192922843283</v>
       </c>
       <c r="T3" t="n">
-        <v>722.9192922843275</v>
+        <v>722.9192922843283</v>
       </c>
       <c r="U3" t="n">
-        <v>533.4995072678428</v>
+        <v>722.9192922843283</v>
       </c>
       <c r="V3" t="n">
-        <v>412.9308140210101</v>
+        <v>533.4995072678435</v>
       </c>
       <c r="W3" t="n">
-        <v>223.5110290045253</v>
+        <v>533.4995072678435</v>
       </c>
       <c r="X3" t="n">
-        <v>223.5110290045253</v>
+        <v>357.6704132745007</v>
       </c>
       <c r="Y3" t="n">
-        <v>223.5110290045253</v>
+        <v>357.6704132745007</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>463.6792325704562</v>
+        <v>481.9679628959414</v>
       </c>
       <c r="C4" t="n">
-        <v>463.6792325704562</v>
+        <v>313.0317799680345</v>
       </c>
       <c r="D4" t="n">
-        <v>313.5625931581204</v>
+        <v>162.9151405556987</v>
       </c>
       <c r="E4" t="n">
-        <v>165.6494995757273</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F4" t="n">
-        <v>165.6494995757273</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G4" t="n">
-        <v>165.6494995757273</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H4" t="n">
-        <v>165.6494995757273</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I4" t="n">
-        <v>38.67250990818523</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K4" t="n">
-        <v>43.1759045242809</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L4" t="n">
-        <v>216.063482639416</v>
+        <v>187.8896250884407</v>
       </c>
       <c r="M4" t="n">
-        <v>401.7138139340726</v>
+        <v>373.5399563830975</v>
       </c>
       <c r="N4" t="n">
-        <v>587.3641452287293</v>
+        <v>559.1902876777544</v>
       </c>
       <c r="O4" t="n">
-        <v>750.1023486652795</v>
+        <v>634.3723839608024</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652801</v>
       </c>
       <c r="Q4" t="n">
-        <v>746.7254979846272</v>
+        <v>750.1023486652801</v>
       </c>
       <c r="R4" t="n">
-        <v>746.7254979846272</v>
+        <v>750.1023486652801</v>
       </c>
       <c r="S4" t="n">
-        <v>746.7254979846272</v>
+        <v>750.1023486652801</v>
       </c>
       <c r="T4" t="n">
-        <v>653.0990175869409</v>
+        <v>750.1023486652801</v>
       </c>
       <c r="U4" t="n">
-        <v>653.0990175869409</v>
+        <v>750.1023486652801</v>
       </c>
       <c r="V4" t="n">
-        <v>463.6792325704562</v>
+        <v>750.1023486652801</v>
       </c>
       <c r="W4" t="n">
-        <v>463.6792325704562</v>
+        <v>750.1023486652801</v>
       </c>
       <c r="X4" t="n">
-        <v>463.6792325704562</v>
+        <v>560.6825636487953</v>
       </c>
       <c r="Y4" t="n">
-        <v>463.6792325704562</v>
+        <v>481.9679628959414</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>753.0637996957007</v>
+        <v>1183.794237577001</v>
       </c>
       <c r="C5" t="n">
-        <v>400.3062901464513</v>
+        <v>831.0367280277515</v>
       </c>
       <c r="D5" t="n">
-        <v>47.548780597202</v>
+        <v>831.0367280277515</v>
       </c>
       <c r="E5" t="n">
-        <v>47.548780597202</v>
+        <v>733.4534138547994</v>
       </c>
       <c r="F5" t="n">
-        <v>40.60327984799852</v>
+        <v>380.69590430555</v>
       </c>
       <c r="G5" t="n">
         <v>27.93839475630055</v>
@@ -4573,16 +4573,16 @@
         <v>211.2396305620541</v>
       </c>
       <c r="L5" t="n">
-        <v>409.7273242458681</v>
+        <v>409.7273242458682</v>
       </c>
       <c r="M5" t="n">
-        <v>662.2525653973853</v>
+        <v>662.2525653973855</v>
       </c>
       <c r="N5" t="n">
-        <v>923.4777373365786</v>
+        <v>923.4777373365788</v>
       </c>
       <c r="O5" t="n">
-        <v>1156.809998477537</v>
+        <v>1156.809998477538</v>
       </c>
       <c r="P5" t="n">
         <v>1321.45268416974</v>
@@ -4597,22 +4597,22 @@
         <v>1396.919737815027</v>
       </c>
       <c r="T5" t="n">
-        <v>1396.919737815027</v>
+        <v>1183.794237577001</v>
       </c>
       <c r="U5" t="n">
-        <v>1396.919737815027</v>
+        <v>1183.794237577001</v>
       </c>
       <c r="V5" t="n">
-        <v>1396.919737815027</v>
+        <v>1183.794237577001</v>
       </c>
       <c r="W5" t="n">
-        <v>1044.162228265778</v>
+        <v>1183.794237577001</v>
       </c>
       <c r="X5" t="n">
-        <v>1044.162228265778</v>
+        <v>1183.794237577001</v>
       </c>
       <c r="Y5" t="n">
-        <v>1044.162228265778</v>
+        <v>1183.794237577001</v>
       </c>
     </row>
     <row r="6">
@@ -4622,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>202.3914240374276</v>
+        <v>657.0978466772493</v>
       </c>
       <c r="C6" t="n">
-        <v>27.93839475630055</v>
+        <v>482.6448173961223</v>
       </c>
       <c r="D6" t="n">
-        <v>27.93839475630055</v>
+        <v>333.7104077348711</v>
       </c>
       <c r="E6" t="n">
-        <v>27.93839475630055</v>
+        <v>174.4729527294156</v>
       </c>
       <c r="F6" t="n">
         <v>27.93839475630055</v>
@@ -4646,52 +4646,52 @@
         <v>27.93839475630055</v>
       </c>
       <c r="J6" t="n">
-        <v>40.71784159143105</v>
+        <v>40.71784159143108</v>
       </c>
       <c r="K6" t="n">
-        <v>140.7147764379377</v>
+        <v>140.7147764379378</v>
       </c>
       <c r="L6" t="n">
-        <v>321.4955368824505</v>
+        <v>321.4955368824507</v>
       </c>
       <c r="M6" t="n">
-        <v>551.8150256158627</v>
+        <v>551.815025615863</v>
       </c>
       <c r="N6" t="n">
-        <v>802.6390307947677</v>
+        <v>802.639030794768</v>
       </c>
       <c r="O6" t="n">
         <v>1009.874197887852</v>
       </c>
       <c r="P6" t="n">
-        <v>1156.865623411836</v>
+        <v>1156.865623411837</v>
       </c>
       <c r="Q6" t="n">
         <v>1396.919737815027</v>
       </c>
       <c r="R6" t="n">
-        <v>1388.514189308348</v>
+        <v>1388.514189308349</v>
       </c>
       <c r="S6" t="n">
-        <v>1388.514189308348</v>
+        <v>1388.514189308349</v>
       </c>
       <c r="T6" t="n">
-        <v>1275.608024987927</v>
+        <v>1388.514189308349</v>
       </c>
       <c r="U6" t="n">
-        <v>1275.608024987927</v>
+        <v>1354.247610402148</v>
       </c>
       <c r="V6" t="n">
-        <v>1040.455916756184</v>
+        <v>1119.095502170405</v>
       </c>
       <c r="W6" t="n">
-        <v>786.2185600279823</v>
+        <v>864.8581454422033</v>
       </c>
       <c r="X6" t="n">
-        <v>578.3670598224495</v>
+        <v>864.8581454422033</v>
       </c>
       <c r="Y6" t="n">
-        <v>370.6067610574956</v>
+        <v>657.0978466772493</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>497.4219935362858</v>
+        <v>647.5386329486215</v>
       </c>
       <c r="C7" t="n">
-        <v>328.4858106083789</v>
+        <v>478.6024500207146</v>
       </c>
       <c r="D7" t="n">
         <v>328.4858106083789</v>
       </c>
       <c r="E7" t="n">
-        <v>180.5727170259858</v>
+        <v>180.5727170259857</v>
       </c>
       <c r="F7" t="n">
-        <v>33.68276952807538</v>
+        <v>33.68276952807537</v>
       </c>
       <c r="G7" t="n">
-        <v>33.68276952807538</v>
+        <v>33.68276952807537</v>
       </c>
       <c r="H7" t="n">
-        <v>33.68276952807538</v>
+        <v>33.68276952807537</v>
       </c>
       <c r="I7" t="n">
-        <v>33.68276952807538</v>
+        <v>33.68276952807537</v>
       </c>
       <c r="J7" t="n">
         <v>27.93839475630055</v>
@@ -4731,7 +4731,7 @@
         <v>148.5233105874694</v>
       </c>
       <c r="L7" t="n">
-        <v>358.3569215208646</v>
+        <v>358.3569215208647</v>
       </c>
       <c r="M7" t="n">
         <v>589.9861665014284</v>
@@ -4764,13 +4764,13 @@
         <v>1182.690698049274</v>
       </c>
       <c r="W7" t="n">
-        <v>1127.852588408073</v>
+        <v>1182.690698049274</v>
       </c>
       <c r="X7" t="n">
-        <v>899.8630375100556</v>
+        <v>1049.979676922391</v>
       </c>
       <c r="Y7" t="n">
-        <v>679.0704583665255</v>
+        <v>829.1870977788612</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.2769458819311</v>
+        <v>1118.442187461269</v>
       </c>
       <c r="C8" t="n">
-        <v>141.2769458819311</v>
+        <v>1118.442187461269</v>
       </c>
       <c r="D8" t="n">
-        <v>141.2769458819311</v>
+        <v>1118.442187461269</v>
       </c>
       <c r="E8" t="n">
-        <v>141.2769458819311</v>
+        <v>1118.442187461269</v>
       </c>
       <c r="F8" t="n">
-        <v>134.3314451327277</v>
+        <v>707.4562826716615</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362817</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>1975.313418796629</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>1644.250531453059</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W8" t="n">
-        <v>1291.481876182944</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="X8" t="n">
-        <v>918.0161179218646</v>
+        <v>1505.042027525391</v>
       </c>
       <c r="Y8" t="n">
-        <v>527.8767859460529</v>
+        <v>1505.042027525391</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
         <v>113.5972052500113</v>
@@ -4889,16 +4889,16 @@
         <v>560.1394111735141</v>
       </c>
       <c r="L9" t="n">
-        <v>854.8429682049857</v>
+        <v>1117.223096727985</v>
       </c>
       <c r="M9" t="n">
-        <v>1218.104987164206</v>
+        <v>1480.485115687206</v>
       </c>
       <c r="N9" t="n">
-        <v>1605.390115761151</v>
+        <v>1867.770244284151</v>
       </c>
       <c r="O9" t="n">
-        <v>1937.460550937313</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
         <v>2447.023413292609</v>
@@ -4916,16 +4916,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>665.1026499885492</v>
+        <v>716.5983551657491</v>
       </c>
       <c r="C10" t="n">
-        <v>496.1664670606423</v>
+        <v>547.6621722378422</v>
       </c>
       <c r="D10" t="n">
-        <v>346.0498276483066</v>
+        <v>397.5455328255065</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1367340659135</v>
+        <v>249.6324392431134</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2467865680031</v>
+        <v>102.742491745203</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>102.742491745203</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4995,19 +4995,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1550.217733066223</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1295.533244860336</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W10" t="n">
-        <v>1295.533244860336</v>
+        <v>1347.028950037536</v>
       </c>
       <c r="X10" t="n">
-        <v>1067.543693962319</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y10" t="n">
-        <v>846.7511148187889</v>
+        <v>898.2468199959889</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168588</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>429.5088224239595</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>924.834428639718</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>2149.810879820876</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>801.6918836311994</v>
+        <v>803.2707707770243</v>
       </c>
       <c r="C13" t="n">
-        <v>632.7557007032925</v>
+        <v>634.3345878491174</v>
       </c>
       <c r="D13" t="n">
-        <v>482.6390612909568</v>
+        <v>634.3345878491174</v>
       </c>
       <c r="E13" t="n">
-        <v>334.7259677085636</v>
+        <v>486.4214942667243</v>
       </c>
       <c r="F13" t="n">
-        <v>187.8360202106533</v>
+        <v>339.5315467688139</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614391</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y13" t="n">
-        <v>983.3403484614391</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5296,7 +5296,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5305,25 +5305,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>985.7836617409695</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C16" t="n">
-        <v>816.8474788130626</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D16" t="n">
-        <v>666.7308394007268</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E16" t="n">
-        <v>518.8177458183337</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F16" t="n">
-        <v>371.9277983204233</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G16" t="n">
-        <v>204.7316990353033</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U16" t="n">
-        <v>2160.315914855604</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V16" t="n">
-        <v>1905.631426649717</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W16" t="n">
-        <v>1616.214256612757</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X16" t="n">
-        <v>1388.224705714739</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y16" t="n">
-        <v>1167.432126571209</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5509,19 +5509,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
@@ -5536,31 +5536,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803937</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>803.8641191832229</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C19" t="n">
-        <v>634.927936255316</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5709,16 +5709,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1434.29471405501</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>985.5125840134626</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="20">
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5971,37 +5971,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6071,22 +6071,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2022.116874200839</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2445.740023695907</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6126,22 +6126,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6208,28 +6208,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6247,28 +6247,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6369,19 +6369,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6451,7 +6451,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6460,22 +6460,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>527.7722521572603</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D31" t="n">
-        <v>527.7722521572603</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E31" t="n">
-        <v>527.7722521572603</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6648,25 +6648,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,46 +6676,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6727,10 +6727,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466572</v>
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>931.4710609784063</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>762.5348780504994</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>612.4182386381636</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2395.078540748843</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>2106.003314093041</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1851.318825887154</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1561.901655850193</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1333.912104952176</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>1113.119525808646</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
         <v>1948.813509611463</v>
@@ -6931,58 +6931,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>874.868625753634</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C37" t="n">
-        <v>705.9324428257271</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133913</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2338.476105524071</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2049.400878868269</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1794.716390662382</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1505.299220625421</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X37" t="n">
-        <v>1277.309669727404</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y37" t="n">
-        <v>1056.517090583874</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="38">
@@ -7156,37 +7156,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7195,13 +7195,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
@@ -7314,22 +7314,22 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7417,19 +7417,19 @@
         <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
         <v>484.8112968429803</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T43" t="n">
-        <v>2379.917379832663</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.199413378161</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="44">
@@ -7630,28 +7630,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1022.530292372932</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C46" t="n">
-        <v>853.5941094450255</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D46" t="n">
-        <v>703.4774700326898</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E46" t="n">
-        <v>555.5643764502967</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>408.6744289523863</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>241.4783296672662</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487567</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U46" t="n">
-        <v>2197.062545487567</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V46" t="n">
-        <v>1942.37805728168</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W46" t="n">
-        <v>1652.96088724472</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X46" t="n">
-        <v>1424.971336346702</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y46" t="n">
-        <v>1204.178757203172</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>15.37922103265835</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8139,22 +8139,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>42.56275186471065</v>
+        <v>14.10430989402848</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>171.4142040457083</v>
+        <v>171.4142040457085</v>
       </c>
       <c r="N4" t="n">
-        <v>163.8604018711116</v>
+        <v>163.8604018711117</v>
       </c>
       <c r="O4" t="n">
-        <v>163.0416663658825</v>
+        <v>74.60115408961754</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709386</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>41.92993463898918</v>
+        <v>41.92993463898915</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>193.6499349213325</v>
+        <v>193.6499349213323</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8537,7 +8537,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>265.0304328515148</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8549,7 +8549,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>265.0304328515147</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>72.44497470121426</v>
+        <v>143.8269525734246</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23509,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>32.89260457060007</v>
       </c>
       <c r="H16" t="n">
-        <v>30.48882721876578</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23740,7 +23740,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23898,7 +23898,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23949,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0.5874149221289144</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>211.9838267404999</v>
       </c>
     </row>
     <row r="20">
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24609,19 +24609,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H28" t="n">
-        <v>138.4949402405077</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24840,22 +24840,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>45.44677382459312</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465651</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>21.62386594322854</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>166.0397529241849</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25323,10 +25323,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>110.0033420516603</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>121.5862749664512</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>138.4949402405074</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>75.37549921168802</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>110.0033420516648</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>860312.752939765</v>
+        <v>860312.7529397649</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>860312.7529397651</v>
+        <v>860312.7529397652</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>860312.7529397651</v>
+        <v>860312.752939765</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>860312.752939765</v>
+        <v>860312.7529397652</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>860312.7529397651</v>
+        <v>860312.752939765</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>860312.7529397651</v>
+        <v>860312.752939765</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>860312.7529397652</v>
+        <v>860312.752939765</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>860312.7529397651</v>
+        <v>860312.752939765</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>860312.7529397652</v>
+        <v>860312.752939765</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>860312.7529397651</v>
+        <v>860312.752939765</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>860312.7529397652</v>
+        <v>860312.7529397651</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>860312.7529397652</v>
+        <v>860312.7529397651</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>574729.2389049982</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049984</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="D2" t="n">
         <v>574729.2389049988</v>
       </c>
       <c r="E2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830043</v>
       </c>
       <c r="F2" t="n">
         <v>565002.6197830044</v>
       </c>
       <c r="G2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="H2" t="n">
         <v>565002.6197830045</v>
       </c>
       <c r="I2" t="n">
+        <v>565002.619783004</v>
+      </c>
+      <c r="J2" t="n">
         <v>565002.6197830045</v>
-      </c>
-      <c r="J2" t="n">
-        <v>565002.6197830043</v>
       </c>
       <c r="K2" t="n">
         <v>565002.6197830045</v>
       </c>
       <c r="L2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="M2" t="n">
-        <v>565002.6197830046</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="N2" t="n">
         <v>565002.6197830045</v>
       </c>
       <c r="O2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="P2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830043</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>591356.9025208456</v>
       </c>
       <c r="C3" t="n">
-        <v>178997.506142713</v>
+        <v>178997.5061427128</v>
       </c>
       <c r="D3" t="n">
-        <v>301519.8707731196</v>
+        <v>301519.8707731194</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245462</v>
+        <v>507485.4416245456</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.9447285445</v>
+        <v>49064.94472854465</v>
       </c>
       <c r="K3" t="n">
-        <v>41617.52445267315</v>
+        <v>41617.52445267303</v>
       </c>
       <c r="L3" t="n">
-        <v>73739.30240019511</v>
+        <v>73739.3024001951</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289268</v>
+        <v>132607.2937289265</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>277470.8484307132</v>
+        <v>277470.8484307131</v>
       </c>
       <c r="C4" t="n">
-        <v>229588.1389806965</v>
+        <v>229588.1389806964</v>
       </c>
       <c r="D4" t="n">
-        <v>145155.2306979383</v>
+        <v>145155.2306979382</v>
       </c>
       <c r="E4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="F4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="G4" t="n">
         <v>13606.80811184274</v>
@@ -26438,19 +26438,19 @@
         <v>13606.80811184274</v>
       </c>
       <c r="I4" t="n">
+        <v>13606.80811184275</v>
+      </c>
+      <c r="J4" t="n">
         <v>13606.80811184274</v>
       </c>
-      <c r="J4" t="n">
-        <v>13606.8081118428</v>
-      </c>
       <c r="K4" t="n">
-        <v>13606.8081118428</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="L4" t="n">
+        <v>13606.80811184274</v>
+      </c>
+      <c r="M4" t="n">
         <v>13606.80811184279</v>
-      </c>
-      <c r="M4" t="n">
-        <v>13606.8081118428</v>
       </c>
       <c r="N4" t="n">
         <v>13606.80811184274</v>
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161357</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
-        <v>69851.97930029186</v>
+        <v>69851.97930029187</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-351084.312458174</v>
+        <v>-351084.3124581741</v>
       </c>
       <c r="C6" t="n">
-        <v>96291.61448129709</v>
+        <v>96291.61448129742</v>
       </c>
       <c r="D6" t="n">
-        <v>35116.36499409622</v>
+        <v>35116.36499409637</v>
       </c>
       <c r="E6" t="n">
-        <v>-57559.53903164848</v>
+        <v>-57246.89770272683</v>
       </c>
       <c r="F6" t="n">
-        <v>449925.9025928976</v>
+        <v>450238.5439218189</v>
       </c>
       <c r="G6" t="n">
-        <v>449925.9025928979</v>
+        <v>450238.5439218187</v>
       </c>
       <c r="H6" t="n">
-        <v>449925.9025928977</v>
+        <v>450238.543921819</v>
       </c>
       <c r="I6" t="n">
-        <v>449925.9025928977</v>
+        <v>450238.5439218185</v>
       </c>
       <c r="J6" t="n">
-        <v>400860.957864353</v>
+        <v>401173.5991932743</v>
       </c>
       <c r="K6" t="n">
-        <v>408308.3781402245</v>
+        <v>408621.0194691459</v>
       </c>
       <c r="L6" t="n">
-        <v>376186.6001927026</v>
+        <v>376499.2415216237</v>
       </c>
       <c r="M6" t="n">
-        <v>317318.608863971</v>
+        <v>317631.2501928922</v>
       </c>
       <c r="N6" t="n">
-        <v>449925.9025928978</v>
+        <v>450238.543921819</v>
       </c>
       <c r="O6" t="n">
-        <v>449925.9025928977</v>
+        <v>450238.5439218188</v>
       </c>
       <c r="P6" t="n">
-        <v>449925.9025928976</v>
+        <v>450238.5439218187</v>
       </c>
     </row>
   </sheetData>
@@ -26709,16 +26709,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.469431638532585e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.469431638532585e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.469431638532585e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.469431638532585e-14</v>
+        <v>3.318586784683342e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>687.6696919955713</v>
+        <v>687.6696919955714</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>349.2299344537568</v>
+        <v>349.2299344537569</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.469431638532585e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.318586784683342e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>139.1997510826667</v>
+        <v>139.1997510826666</v>
       </c>
       <c r="D3" t="n">
-        <v>246.3952001219678</v>
+        <v>246.3952001219677</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241349</v>
+        <v>433.9106082241344</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>161.7043472874369</v>
+        <v>161.7043472874368</v>
       </c>
       <c r="D4" t="n">
         <v>291.354897646282</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996091</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663194</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>161.7043472874373</v>
+        <v>161.7043472874368</v>
       </c>
       <c r="L4" t="n">
         <v>291.3548976462818</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996101</v>
+        <v>532.1234559996088</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.469431638532585e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>161.7043472874369</v>
+        <v>161.7043472874368</v>
       </c>
       <c r="L4" t="n">
         <v>291.354897646282</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996091</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>195.2082544971607</v>
+        <v>235.8026493727786</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27390,10 +27390,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>224.3190337330316</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>225.5722460637382</v>
+        <v>225.572246063738</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
         <v>213.4438810562068</v>
@@ -27444,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>182.205513512149</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>198.7123514897335</v>
       </c>
     </row>
     <row r="3">
@@ -27457,16 +27457,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27478,7 +27478,7 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.77881175550655</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27511,19 +27511,19 @@
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U3" t="n">
-        <v>38.33818124377106</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>113.4375808350609</v>
+        <v>45.27499998310523</v>
       </c>
       <c r="W3" t="n">
-        <v>64.16939599459974</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>31.70218215006813</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27557,10 +27557,10 @@
         <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>23.4337583055308</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.343082173845758</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27590,22 +27590,22 @@
         <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>131.0294578963907</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
         <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
-        <v>64.61205615750814</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>38.18406822271712</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>140.6571986067694</v>
       </c>
     </row>
     <row r="5">
@@ -27615,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>94.54639737910418</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>16.04295731725074</v>
+        <v>16.04295731725068</v>
       </c>
       <c r="D5" t="n">
-        <v>5.453107166926145</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>285.3228890410392</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>57.64611128795457</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>63.30830178702413</v>
       </c>
       <c r="H5" t="n">
         <v>311.1628534397887</v>
@@ -27669,7 +27669,7 @@
         <v>146.0239967969023</v>
       </c>
       <c r="T5" t="n">
-        <v>210.9942452356465</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.1244928058882</v>
@@ -27678,7 +27678,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0.01103426365619953</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27694,19 +27694,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>135.8643785804277</v>
@@ -27715,7 +27715,7 @@
         <v>97.95007950277714</v>
       </c>
       <c r="I6" t="n">
-        <v>38.47015094419588</v>
+        <v>38.47015094419586</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27748,10 +27748,10 @@
         <v>144.2088206736374</v>
       </c>
       <c r="T6" t="n">
-        <v>82.42565953700093</v>
+        <v>194.2027622142185</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8440703321075</v>
+        <v>191.9201572149684</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27760,7 +27760,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27779,7 +27779,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27836,10 +27836,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>232.2332697918022</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>94.32574447342344</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27864,13 +27864,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>395.0038034663472</v>
+        <v>128.6287668652081</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28028,7 +28028,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>96.27076102970096</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28067,13 +28067,13 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>200.8610509830096</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28104,7 +28104,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28247,7 +28247,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>-6.166543079479755e-12</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -29337,7 +29337,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>1.22179783531841e-12</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -29678,7 +29678,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>4.05229615380606e-12</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -29748,7 +29748,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>9.707434855954489e-13</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29988,7 +29988,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>9.285372470912988e-13</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30152,7 +30152,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>4.05229615380606e-12</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -31044,46 +31044,46 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043123</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470275</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622681</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619225</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924584</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,13 +31120,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H3" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590852</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31135,34 +31135,34 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>298.9161177975331</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q3" t="n">
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550075</v>
+        <v>73.2466083355008</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820369</v>
+        <v>4.755130902820371</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390166</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445823</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620019</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>29.74325515639163</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114193</v>
+        <v>69.92542181114197</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31223,25 +31223,25 @@
         <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784863</v>
       </c>
       <c r="R4" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647912</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181396</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05394786304061364</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.764501274354053</v>
+        <v>2.764501274354054</v>
       </c>
       <c r="H5" t="n">
         <v>28.31194867597846</v>
       </c>
       <c r="I5" t="n">
-        <v>106.5784353795347</v>
+        <v>106.5784353795348</v>
       </c>
       <c r="J5" t="n">
-        <v>234.6335900342075</v>
+        <v>234.6335900342076</v>
       </c>
       <c r="K5" t="n">
-        <v>351.6549289776147</v>
+        <v>351.6549289776148</v>
       </c>
       <c r="L5" t="n">
-        <v>436.2590348526276</v>
+        <v>436.2590348526277</v>
       </c>
       <c r="M5" t="n">
-        <v>485.4222343904215</v>
+        <v>485.4222343904216</v>
       </c>
       <c r="N5" t="n">
-        <v>493.27687363618</v>
+        <v>493.2768736361801</v>
       </c>
       <c r="O5" t="n">
-        <v>465.7873640893218</v>
+        <v>465.787364089322</v>
       </c>
       <c r="P5" t="n">
-        <v>397.5387388787061</v>
+        <v>397.5387388787062</v>
       </c>
       <c r="Q5" t="n">
         <v>298.5350369909015</v>
       </c>
       <c r="R5" t="n">
-        <v>173.6556031751429</v>
+        <v>173.655603175143</v>
       </c>
       <c r="S5" t="n">
-        <v>62.99607278934305</v>
+        <v>62.99607278934306</v>
       </c>
       <c r="T5" t="n">
-        <v>12.10160432848487</v>
+        <v>12.10160432848488</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2211601019483242</v>
+        <v>0.2211601019483243</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31363,7 +31363,7 @@
         <v>14.28536473371932</v>
       </c>
       <c r="I6" t="n">
-        <v>50.9264819072192</v>
+        <v>50.92648190721921</v>
       </c>
       <c r="J6" t="n">
         <v>139.7461588233642</v>
@@ -31372,34 +31372,34 @@
         <v>238.8484438698203</v>
       </c>
       <c r="L6" t="n">
-        <v>321.1612085117053</v>
+        <v>321.1612085117054</v>
       </c>
       <c r="M6" t="n">
         <v>374.7799821375863</v>
       </c>
       <c r="N6" t="n">
-        <v>384.6992930721262</v>
+        <v>384.6992930721263</v>
       </c>
       <c r="O6" t="n">
-        <v>351.9246960536203</v>
+        <v>351.9246960536204</v>
       </c>
       <c r="P6" t="n">
         <v>282.4505948122942</v>
       </c>
       <c r="Q6" t="n">
-        <v>188.8107426022557</v>
+        <v>188.8107426022558</v>
       </c>
       <c r="R6" t="n">
-        <v>91.83634113103123</v>
+        <v>91.83634113103125</v>
       </c>
       <c r="S6" t="n">
-        <v>27.4743504302004</v>
+        <v>27.47435043020041</v>
       </c>
       <c r="T6" t="n">
-        <v>5.961966480603111</v>
+        <v>5.961966480603112</v>
       </c>
       <c r="U6" t="n">
-        <v>0.09731174886729786</v>
+        <v>0.09731174886729788</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,10 +31442,10 @@
         <v>11.02526161920769</v>
       </c>
       <c r="I7" t="n">
-        <v>37.29198919871066</v>
+        <v>37.29198919871067</v>
       </c>
       <c r="J7" t="n">
-        <v>87.67224909261569</v>
+        <v>87.6722490926157</v>
       </c>
       <c r="K7" t="n">
         <v>144.0724371098918</v>
@@ -31460,7 +31460,7 @@
         <v>189.76301516986</v>
       </c>
       <c r="O7" t="n">
-        <v>175.2768585433958</v>
+        <v>175.2768585433959</v>
       </c>
       <c r="P7" t="n">
         <v>149.9796324968701</v>
@@ -31469,13 +31469,13 @@
         <v>103.8381234913313</v>
       </c>
       <c r="R7" t="n">
-        <v>55.75761141983761</v>
+        <v>55.75761141983762</v>
       </c>
       <c r="S7" t="n">
-        <v>21.61086556648376</v>
+        <v>21.61086556648377</v>
       </c>
       <c r="T7" t="n">
-        <v>5.298438610457678</v>
+        <v>5.298438610457679</v>
       </c>
       <c r="U7" t="n">
         <v>0.06763964183563004</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>549.9198891312112</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,46 +32150,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32791,10 +32791,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,13 +32803,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>248.3870916262918</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33198,7 +33198,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
         <v>790.8204499236507</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868052</v>
+        <v>6.092590538868137</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788333</v>
+        <v>60.38224240788344</v>
       </c>
       <c r="L2" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197548</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405812</v>
+        <v>141.4033554405814</v>
       </c>
       <c r="P2" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656916001</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065975</v>
+        <v>15.79916774065984</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781475</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>175.4858258996322</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848229</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855694</v>
+        <v>91.30185944855702</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440765002</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>28.45844197068213</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>174.6339172880152</v>
+        <v>174.6339172880153</v>
       </c>
       <c r="M4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="N4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="O4" t="n">
-        <v>164.382023673283</v>
+        <v>75.94151139701812</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>116.8989542469473</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>53.58768550752126</v>
+        <v>53.58768550752129</v>
       </c>
       <c r="K5" t="n">
         <v>131.5650779326342</v>
@@ -34947,16 +34947,16 @@
         <v>255.0760011631488</v>
       </c>
       <c r="N5" t="n">
-        <v>263.8638100395891</v>
+        <v>263.8638100395892</v>
       </c>
       <c r="O5" t="n">
-        <v>235.6891526676351</v>
+        <v>235.6891526676352</v>
       </c>
       <c r="P5" t="n">
         <v>166.3057431234366</v>
       </c>
       <c r="Q5" t="n">
-        <v>76.22934711645198</v>
+        <v>76.22934711645203</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>12.90853215669748</v>
+        <v>12.9085321566975</v>
       </c>
       <c r="K6" t="n">
         <v>101.0070048954613</v>
       </c>
       <c r="L6" t="n">
-        <v>182.6068287318311</v>
+        <v>182.6068287318312</v>
       </c>
       <c r="M6" t="n">
         <v>232.645948215568</v>
       </c>
       <c r="N6" t="n">
-        <v>253.3575809887929</v>
+        <v>253.357580988793</v>
       </c>
       <c r="O6" t="n">
         <v>209.3284516091759</v>
       </c>
       <c r="P6" t="n">
-        <v>148.4761873979639</v>
+        <v>148.476187397964</v>
       </c>
       <c r="Q6" t="n">
-        <v>242.4789034375667</v>
+        <v>242.4789034375665</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35105,7 +35105,7 @@
         <v>233.9689343238018</v>
       </c>
       <c r="N7" t="n">
-        <v>233.8951875490885</v>
+        <v>233.8951875490886</v>
       </c>
       <c r="O7" t="n">
         <v>199.8619864574355</v>
@@ -35114,7 +35114,7 @@
         <v>147.2581917617636</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.67608023963687</v>
+        <v>17.67608023963689</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35257,7 +35257,7 @@
         <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>562.710793489365</v>
       </c>
       <c r="M9" t="n">
         <v>366.9313322820404</v>
@@ -35269,7 +35269,7 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>514.7099619750469</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
         <v>116.4807223308545</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>407.3236446867668</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36439,10 +36439,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,13 +36451,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>108.4053175402703</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36846,7 +36846,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -38037,7 +38037,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
